--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1693315.27724471</v>
+        <v>1797494.911695782</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>240.7199646803055</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>378.4822951763575</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>13.42874471570696</v>
+        <v>41.48181567275041</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -902,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>9.943518040492057</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145775</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>121.8558017623726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>17.61551189104967</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>278.7676841608052</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>69.23266981762838</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.04222117412226</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>161.5530023681351</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>18.70843787977265</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>131.4244133395511</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1658,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>108.2950343703271</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>204.2584534680927</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>31.26260713376214</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2482,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>100.58583229927</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>9.146142788180832</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>121.3986907513285</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2843,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2956,10 +2958,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>12.74007641194022</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>63.84155641259233</v>
       </c>
       <c r="H34" t="n">
-        <v>103.7802572945529</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>3.006892987834117</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>159.4718642460855</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>18.16423677622371</v>
       </c>
       <c r="H40" t="n">
-        <v>103.8784673763403</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3898,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>20.88994825141581</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>147.6410308210115</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4141,13 +4143,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>205.6779548755971</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4325,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4343,13 +4345,13 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2718.633196935045</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.167438673965</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.608663915319</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V4" t="n">
-        <v>1735.608663915319</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1060.090027680735</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>1060.090027680735</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>839.2974485372046</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4562,7 +4564,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912092</v>
@@ -4571,46 +4573,46 @@
         <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>3109.584116376734</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X5" t="n">
-        <v>2736.118358115654</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.979026139843</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
@@ -4641,43 +4643,43 @@
         <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>600.8444854681023</v>
+        <v>793.5809963705858</v>
       </c>
       <c r="C7" t="n">
-        <v>600.8444854681023</v>
+        <v>793.5809963705858</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>643.4643569582501</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>495.5512633758569</v>
       </c>
       <c r="F7" t="n">
         <v>477.7578170212613</v>
@@ -4720,19 +4722,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415546</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W7" t="n">
-        <v>782.4929502983421</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X7" t="n">
-        <v>782.4929502983421</v>
+        <v>1196.022040344356</v>
       </c>
       <c r="Y7" t="n">
-        <v>782.4929502983421</v>
+        <v>975.2294612008255</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3255.673831894394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3049.696084278616</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3049.696084278616</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2718.633196935045</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W8" t="n">
-        <v>2718.633196935045</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.167438673965</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>2329.167357637081</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.6477645191717</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="C10" t="n">
-        <v>624.6477645191717</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4957,19 +4959,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658018</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V10" t="n">
-        <v>1416.425065783662</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W10" t="n">
-        <v>1127.007895746701</v>
+        <v>1191.507005672471</v>
       </c>
       <c r="X10" t="n">
-        <v>899.0183448486839</v>
+        <v>1028.322154795567</v>
       </c>
       <c r="Y10" t="n">
-        <v>678.2257657051538</v>
+        <v>807.5295756520372</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,16 +5129,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000582</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2247.16544716645</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5269,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5512,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,16 +5527,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5595,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D19" t="n">
-        <v>235.5284942057738</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1990.740875317776</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1701.665648661974</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1701.665648661974</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1412.248478625014</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5746,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,28 +5773,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3195.647281583952</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3026.711098656045</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>2876.594459243709</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661316</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661316</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376196</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218394</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866308</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296632</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4659.254761354388</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4659.254761354388</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4659.254761354388</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4370.179534698586</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4115.4950464927</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3826.077876455739</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3598.088325557722</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3377.295746414192</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,28 +5986,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852254</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>662.1522880254209</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>493.2161050975141</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>343.0994656851783</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
@@ -6172,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2345.361232772917</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2125.759767795858</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U25" t="n">
-        <v>1836.684541140056</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1582.000052934169</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1292.582882897208</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>1064.593331999191</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>843.8007528556607</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2824.769373306003</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C28" t="n">
-        <v>2655.833190378096</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D28" t="n">
-        <v>2655.833190378096</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>2655.833190378096</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309226</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2324.338143427403</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>2104.736678450344</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420637</v>
+        <v>1815.661451794542</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.61713821475</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W28" t="n">
-        <v>3455.19996817779</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X28" t="n">
-        <v>3227.210417279773</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y28" t="n">
-        <v>3006.417838136243</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="29">
@@ -6452,22 +6454,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6479,16 +6481,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6546,22 +6548,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836013</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556945</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>415.5933575433587</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>415.5933575433587</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>415.5933575433587</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>248.3972582582387</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>106.6854271004367</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797186</v>
@@ -6725,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3007.624207651098</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>2838.688024723191</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D34" t="n">
-        <v>2838.688024723191</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E34" t="n">
-        <v>2838.688024723191</v>
+        <v>446.9048623224643</v>
       </c>
       <c r="F34" t="n">
-        <v>2691.79807722528</v>
+        <v>300.0149148245539</v>
       </c>
       <c r="G34" t="n">
-        <v>2524.60197794016</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>4471.231687421534</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>4182.156460765732</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>3927.471972559845</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>3638.054802522885</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>3410.065251624867</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>3189.272672481337</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6953,34 +6955,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D37" t="n">
-        <v>408.925855915485</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>336.9860575577204</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400712</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E40" t="n">
-        <v>365.9405071576781</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F40" t="n">
-        <v>365.9405071576781</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="G40" t="n">
-        <v>198.744407872558</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7393,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7406,7 +7408,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7448,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,19 +7490,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E43" t="n">
-        <v>197.0043242297712</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2297.830729215602</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2078.229264238543</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1789.154037582741</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1534.469549376854</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1245.052379339893</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1017.062828441876</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>796.270249298346</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7688,7 +7690,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>251.562654109227</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>746.8882603249857</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23422,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7255247667965</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>85.98103698773721</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>40.32043864788525</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>13.14699685919553</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>35.11263957635955</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24370,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>80.44045370237458</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>136.2749052347504</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>59.62759525031606</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.52575990662531</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>101.6825818796765</v>
       </c>
       <c r="H34" t="n">
-        <v>36.51445555167095</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>6.0522740461833</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>147.3599015160451</v>
       </c>
       <c r="H40" t="n">
-        <v>36.41624546988359</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>124.5310997715154</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>33.38525518063307</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26029,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>46.45968844823091</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879881.4739670031</v>
+        <v>879881.4739670029</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>879881.4739670029</v>
+        <v>879881.4739670031</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>879881.4739670031</v>
+        <v>879881.4739670029</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="H2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="I2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="J2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907538</v>
-      </c>
       <c r="L2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="M2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907535</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.8989181818</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="C4" t="n">
+        <v>92183.89891818172</v>
+      </c>
+      <c r="D4" t="n">
         <v>92183.89891818173</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92183.89891818176</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-974659.390548776</v>
+        <v>-974659.3905487763</v>
       </c>
       <c r="C6" t="n">
-        <v>354085.3551788165</v>
+        <v>354085.3551788164</v>
       </c>
       <c r="D6" t="n">
         <v>354085.3551788165</v>
       </c>
       <c r="E6" t="n">
-        <v>105292.0990126608</v>
+        <v>105292.0990126613</v>
       </c>
       <c r="F6" t="n">
-        <v>430704.5608200161</v>
+        <v>430704.5608200167</v>
       </c>
       <c r="G6" t="n">
+        <v>430704.5608200164</v>
+      </c>
+      <c r="H6" t="n">
+        <v>430704.5608200164</v>
+      </c>
+      <c r="I6" t="n">
+        <v>430704.5608200162</v>
+      </c>
+      <c r="J6" t="n">
+        <v>213173.3584227391</v>
+      </c>
+      <c r="K6" t="n">
         <v>430704.5608200165</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
         <v>430704.5608200165</v>
-      </c>
-      <c r="I6" t="n">
-        <v>430704.5608200164</v>
-      </c>
-      <c r="J6" t="n">
-        <v>213173.3584227388</v>
-      </c>
-      <c r="K6" t="n">
-        <v>430704.5608200163</v>
-      </c>
-      <c r="L6" t="n">
-        <v>430704.5608200164</v>
       </c>
       <c r="M6" t="n">
         <v>345649.5328845044</v>
       </c>
       <c r="N6" t="n">
-        <v>430704.560820016</v>
+        <v>430704.5608200163</v>
       </c>
       <c r="O6" t="n">
-        <v>430704.5608200161</v>
+        <v>430704.5608200166</v>
       </c>
       <c r="P6" t="n">
-        <v>430704.5608200165</v>
+        <v>430704.5608200164</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.5210040371076</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>7.755643479696062</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,16 +27593,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>273.094253620884</v>
+        <v>245.0411826638406</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>339.297450676921</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>111.4435131414761</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>26.75967125583975</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>127.8055361318816</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>103.9661575026753</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>39.95509197054747</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>126.789759007815</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>64.15665302090201</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29035,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31847,31 +31849,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270667</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7449369209195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32096,7 +32098,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>574.6535388222619</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,7 +33268,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33280,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>458.677017313216</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33752,7 +33754,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33913,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,10 +33979,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,10 +33994,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34150,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34208,7 +34210,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,10 +34365,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,22 +34444,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>146.0225991093089</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,10 +34468,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35726,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35744,7 +35746,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36279,7 +36281,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096304</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>432.0572943778175</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36928,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>320.835578338857</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,7 +37402,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37552,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37561,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,10 +37642,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38011,10 +38013,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>8.181160134949948</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,10 +38116,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1797494.911695782</v>
+        <v>1793482.301681789</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>5.648630020763625</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>378.4822951763575</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>41.48181567275041</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>283.6826708844497</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.7944255145775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>17.61551189104967</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>2.398536716038688</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278.7676841608052</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>146.652568600271</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1296,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>161.5530023681351</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>131.4244133395511</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>35.55160172423425</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>204.2584534680927</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>123.9815576456779</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>121.3986907513285</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>260.4394343112834</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>63.84155641259233</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>187.4608242120716</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>159.4718642460855</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>38.61213096654825</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>18.16423677622371</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>93.40444476188321</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>147.6410308210115</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X2" t="n">
-        <v>2755.806928794324</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="Y2" t="n">
-        <v>2373.501580131336</v>
+        <v>2350.873125563625</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>657.6489837069648</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>657.6489837069648</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>507.5323442946291</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592604</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W4" t="n">
-        <v>1060.090027680735</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>1060.090027680735</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>839.2974485372046</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520489</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>3009.337405520489</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>793.5809963705858</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>793.5809963705858</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>643.4643569582501</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>495.5512633758569</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4728,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W7" t="n">
-        <v>1424.011591242373</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1196.022040344356</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>975.2294612008255</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3067.181245459225</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>3067.181245459225</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883007</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="W8" t="n">
-        <v>2719.306689612893</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="X8" t="n">
-        <v>2719.306689612893</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="Y8" t="n">
-        <v>2329.167357637081</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,19 +4886,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>625.8811108217975</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>456.9449278938906</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1735.608663915319</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1480.924175709432</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1191.507005672471</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1028.322154795567</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>807.5295756520372</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5041,16 +5041,16 @@
         <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5059,7 +5059,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5123,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>783.5579673960132</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C13" t="n">
-        <v>614.6217844681063</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2247.16544716645</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1958.090220510648</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1703.405732304761</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1413.9885622678</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1185.999011369783</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y13" t="n">
-        <v>965.2064322262529</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5293,22 +5293,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578602</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5515,49 +5515,49 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.8178837532264</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532264</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1990.740875317776</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1701.665648661974</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1701.665648661974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1412.248478625014</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1184.258927726996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>963.4663485834661</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>365.9405071576781</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>219.0505596597677</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5983,58 +5983,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6080,16 +6080,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,37 +6214,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6320,13 +6320,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>641.1291986799072</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C28" t="n">
-        <v>641.1291986799072</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>491.0125592675714</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2324.338143427403</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2104.736678450344</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>1815.661451794542</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V28" t="n">
-        <v>1560.976963588655</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W28" t="n">
-        <v>1271.559793551694</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X28" t="n">
-        <v>1043.570242653677</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y28" t="n">
-        <v>822.7776635101469</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="29">
@@ -6454,37 +6454,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6694,7 +6694,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192548</v>
@@ -6703,25 +6703,25 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D34" t="n">
-        <v>594.8179559048574</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>446.9048623224643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>300.0149148245539</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>802.9288273958734</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C37" t="n">
-        <v>633.9926444679666</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D37" t="n">
-        <v>483.8760050556308</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="E37" t="n">
-        <v>483.8760050556308</v>
+        <v>446.9048623224652</v>
       </c>
       <c r="F37" t="n">
-        <v>336.9860575577204</v>
+        <v>300.0149148245548</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>132.8188155394348</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>132.8188155394348</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369643</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.5772922261132</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,13 +7186,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>802.9288273958734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>633.9926444679666</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>335.9629114732377</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>335.9629114732377</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,31 +7423,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>614.6217844681063</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C43" t="n">
-        <v>614.6217844681063</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D43" t="n">
-        <v>464.5051450557705</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2297.830729215602</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2078.229264238543</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1789.154037582741</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1534.469549376854</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1245.052379339893</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1017.062828441876</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>796.270249298346</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-3.278985858334735e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>85.98103698773721</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>190.1580536648029</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>13.14699685919553</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>41.54258064659093</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>59.62759525031606</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>25.74504007796071</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>101.6825818796765</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>29.94462611521669</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>6.0522740461833</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>42.65370535201727</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>147.3599015160451</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>33.38525518063307</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>145.6085800303783</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>879881.4739670031</v>
+        <v>879881.4739670029</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583918</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.954790754</v>
       </c>
       <c r="F2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="I2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="M2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="N2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="O2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907538</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26435,10 +26435,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
@@ -26527,43 +26527,43 @@
         <v>354085.3551788164</v>
       </c>
       <c r="D6" t="n">
-        <v>354085.3551788165</v>
+        <v>354085.3551788169</v>
       </c>
       <c r="E6" t="n">
-        <v>105292.0990126613</v>
+        <v>104944.7197583042</v>
       </c>
       <c r="F6" t="n">
-        <v>430704.5608200167</v>
+        <v>430357.1815656595</v>
       </c>
       <c r="G6" t="n">
-        <v>430704.5608200164</v>
+        <v>430357.1815656598</v>
       </c>
       <c r="H6" t="n">
-        <v>430704.5608200164</v>
+        <v>430357.1815656593</v>
       </c>
       <c r="I6" t="n">
-        <v>430704.5608200162</v>
+        <v>430357.1815656593</v>
       </c>
       <c r="J6" t="n">
-        <v>213173.3584227391</v>
+        <v>212825.9791683823</v>
       </c>
       <c r="K6" t="n">
-        <v>430704.5608200165</v>
+        <v>430357.1815656593</v>
       </c>
       <c r="L6" t="n">
-        <v>430704.5608200165</v>
+        <v>430357.1815656593</v>
       </c>
       <c r="M6" t="n">
-        <v>345649.5328845044</v>
+        <v>345302.1536301475</v>
       </c>
       <c r="N6" t="n">
-        <v>430704.5608200163</v>
+        <v>430357.1815656598</v>
       </c>
       <c r="O6" t="n">
-        <v>430704.5608200166</v>
+        <v>430357.1815656595</v>
       </c>
       <c r="P6" t="n">
-        <v>430704.5608200164</v>
+        <v>430357.1815656593</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26962,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>377.085211642717</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.755643479696062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>245.0411826638406</v>
+        <v>94.35543628911083</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>71.00037073623326</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>111.4435131414761</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>127.8055361318816</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>217.1504125601305</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>103.9661575026753</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>57.26540153934914</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,13 +28061,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>64.15665302090201</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31843,13 +31843,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
@@ -31858,10 +31858,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
@@ -35506,10 +35506,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>439.1903400640646</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1793482.301681789</v>
+        <v>1795242.831984574</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.648630020763625</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>17.35112070699488</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>13.02719212039582</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>192.1675620474802</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>298.7307299422349</v>
       </c>
       <c r="D5" t="n">
-        <v>283.6826708844497</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2.398536716038688</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>218.1043346164863</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>146.652568600271</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>23.76252906476805</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>61.42978662487896</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>75.96788793061765</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>35.55160172423425</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>58.24570521548602</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206839</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>36.43062059490413</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>114.720561100775</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>260.4394343112834</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>71.22475183604523</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>187.4608242120716</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>38.61213096654825</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>93.40444476188321</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W2" t="n">
-        <v>2741.012457539437</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X2" t="n">
-        <v>2741.012457539437</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y2" t="n">
-        <v>2350.873125563625</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>838.5106002518377</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>688.3939608395019</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>540.4808672571088</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>393.5909197591984</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>225.8880831339174</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>79.67089635177516</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882606</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W4" t="n">
-        <v>1478.501411349798</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X4" t="n">
-        <v>1250.51186045178</v>
+        <v>1409.887827153514</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>1189.095248009984</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1904.487375535338</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="C5" t="n">
-        <v>1904.487375535338</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4564,19 +4564,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4585,10 +4585,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535338</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535338</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1733.185899555685</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1733.185899555685</v>
+        <v>1706.987139384971</v>
       </c>
       <c r="V7" t="n">
-        <v>1478.501411349798</v>
+        <v>1452.302651179084</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1162.885481142124</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>934.8959302441062</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1151.298377994912</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>782.3358610545008</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3067.181245459225</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3067.181245459225</v>
+        <v>2985.334850909611</v>
       </c>
       <c r="V8" t="n">
-        <v>2736.118358115654</v>
+        <v>2654.27196356604</v>
       </c>
       <c r="W8" t="n">
-        <v>2736.118358115654</v>
+        <v>2301.503308295926</v>
       </c>
       <c r="X8" t="n">
-        <v>2736.118358115654</v>
+        <v>1928.037550034846</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.979026139843</v>
+        <v>1537.898218059034</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,13 +4886,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5035,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>705.9324428257312</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1108.373486799501</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>887.5809076559709</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5509,13 +5509,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,31 +5770,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>297.8113689946113</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>130.6152697094912</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>130.6152697094912</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,13 +6001,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2331.083728933013</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2111.482263955954</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1822.407037300152</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1567.722549094265</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1278.305379057304</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1050.315828159287</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,13 +6238,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6694,7 +6694,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192548</v>
@@ -6703,49 +6703,49 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>726.955532171245</v>
+        <v>1023.721406539399</v>
       </c>
       <c r="C34" t="n">
-        <v>558.0193492433381</v>
+        <v>854.7852236114921</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>704.6685841991564</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>556.7554906167633</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T34" t="n">
-        <v>2190.563011941682</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U34" t="n">
-        <v>1901.48778528588</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="V34" t="n">
-        <v>1646.803297079993</v>
+        <v>1722.776592304617</v>
       </c>
       <c r="W34" t="n">
-        <v>1357.386127043032</v>
+        <v>1433.359422267656</v>
       </c>
       <c r="X34" t="n">
-        <v>1129.396576145015</v>
+        <v>1205.369871369639</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.6039970014847</v>
+        <v>1205.369871369639</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>594.8179559048583</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>446.9048623224652</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>300.0149148245548</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
-        <v>132.8188155394348</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>132.8188155394348</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,13 +7186,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,40 +7423,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-3.278985858334735e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>103.8640922513196</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856948</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>190.1580536648029</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>44.8352157236614</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>66.30572490086956</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>25.74504007796071</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>74.19629618688602</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>29.94462611521669</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>42.65370535201727</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="41">
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>72.11969353038563</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>879881.4739670029</v>
+        <v>879881.4739670031</v>
       </c>
     </row>
     <row r="8">
@@ -26319,25 +26319,25 @@
         <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583918</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="K2" t="n">
         <v>544823.9547907538</v>
@@ -26346,16 +26346,16 @@
         <v>544823.9547907538</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="O2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.954790754</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907538</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>2.07046923605958e-10</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818176</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683049</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-974659.3905487763</v>
+        <v>-974659.3905487761</v>
       </c>
       <c r="C6" t="n">
-        <v>354085.3551788164</v>
+        <v>354085.3551788162</v>
       </c>
       <c r="D6" t="n">
-        <v>354085.3551788169</v>
+        <v>354085.3551788165</v>
       </c>
       <c r="E6" t="n">
-        <v>104944.7197583042</v>
+        <v>105257.3610872257</v>
       </c>
       <c r="F6" t="n">
-        <v>430357.1815656595</v>
+        <v>430669.8228945808</v>
       </c>
       <c r="G6" t="n">
-        <v>430357.1815656598</v>
+        <v>430669.8228945807</v>
       </c>
       <c r="H6" t="n">
-        <v>430357.1815656593</v>
+        <v>430669.8228945804</v>
       </c>
       <c r="I6" t="n">
-        <v>430357.1815656593</v>
+        <v>430669.8228945809</v>
       </c>
       <c r="J6" t="n">
-        <v>212825.9791683823</v>
+        <v>213138.6204973029</v>
       </c>
       <c r="K6" t="n">
-        <v>430357.1815656593</v>
+        <v>430669.8228945805</v>
       </c>
       <c r="L6" t="n">
-        <v>430357.1815656593</v>
+        <v>430669.8228945806</v>
       </c>
       <c r="M6" t="n">
-        <v>345302.1536301475</v>
+        <v>345614.7949590685</v>
       </c>
       <c r="N6" t="n">
-        <v>430357.1815656598</v>
+        <v>430669.8228945809</v>
       </c>
       <c r="O6" t="n">
-        <v>430357.1815656595</v>
+        <v>430669.8228945805</v>
       </c>
       <c r="P6" t="n">
-        <v>430357.1815656593</v>
+        <v>430669.8228945808</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>377.085211642717</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>331.8898480104181</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>83.32522828944229</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,10 +27596,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>94.35543628911083</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>66.54216182877263</v>
       </c>
       <c r="D5" t="n">
-        <v>71.00037073623326</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>217.1504125601305</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>68.10750358912654</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>57.26540153934914</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>227.2326428941339</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>83.32522828944182</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28268,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-2.53354608527818e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29754,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29948,7 +29948,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066204</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
